--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.29628601061224</v>
+        <v>11.13520333333333</v>
       </c>
       <c r="H2">
-        <v>4.29628601061224</v>
+        <v>33.40561</v>
       </c>
       <c r="I2">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="J2">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.13707495566744</v>
+        <v>7.582021999999999</v>
       </c>
       <c r="N2">
-        <v>4.13707495566744</v>
+        <v>22.746066</v>
       </c>
       <c r="O2">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="P2">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="Q2">
-        <v>17.77405725688828</v>
+        <v>84.42735664780668</v>
       </c>
       <c r="R2">
-        <v>17.77405725688828</v>
+        <v>759.84620983026</v>
       </c>
       <c r="S2">
-        <v>0.01108994133489559</v>
+        <v>0.02993143362059715</v>
       </c>
       <c r="T2">
-        <v>0.01108994133489559</v>
+        <v>0.02993143362059715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.29628601061224</v>
+        <v>11.13520333333333</v>
       </c>
       <c r="H3">
-        <v>4.29628601061224</v>
+        <v>33.40561</v>
       </c>
       <c r="I3">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="J3">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.0105607061342</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N3">
-        <v>3.0105607061342</v>
+        <v>0.52837</v>
       </c>
       <c r="O3">
-        <v>0.4211967213470636</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="P3">
-        <v>0.4211967213470636</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="Q3">
-        <v>12.93422984586327</v>
+        <v>1.961169128411111</v>
       </c>
       <c r="R3">
-        <v>12.93422984586327</v>
+        <v>17.6505221557</v>
       </c>
       <c r="S3">
-        <v>0.008070180495625986</v>
+        <v>0.0006952794202793098</v>
       </c>
       <c r="T3">
-        <v>0.008070180495625986</v>
+        <v>0.0006952794202793098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.6418385302913</v>
+        <v>11.13520333333333</v>
       </c>
       <c r="H4">
-        <v>57.6418385302913</v>
+        <v>33.40561</v>
       </c>
       <c r="I4">
-        <v>0.2570649733392047</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="J4">
-        <v>0.2570649733392047</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.13707495566744</v>
+        <v>0.08017533333333333</v>
       </c>
       <c r="N4">
-        <v>4.13707495566744</v>
+        <v>0.240526</v>
       </c>
       <c r="O4">
-        <v>0.5788032786529365</v>
+        <v>0.007301415158788918</v>
       </c>
       <c r="P4">
-        <v>0.5788032786529365</v>
+        <v>0.007301415158788917</v>
       </c>
       <c r="Q4">
-        <v>238.4686065822947</v>
+        <v>0.8927686389844446</v>
       </c>
       <c r="R4">
-        <v>238.4686065822947</v>
+        <v>8.03491775086</v>
       </c>
       <c r="S4">
-        <v>0.1487900493955614</v>
+        <v>0.0003165069512691888</v>
       </c>
       <c r="T4">
-        <v>0.1487900493955614</v>
+        <v>0.0003165069512691888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.6418385302913</v>
+        <v>11.13520333333333</v>
       </c>
       <c r="H5">
-        <v>57.6418385302913</v>
+        <v>33.40561</v>
       </c>
       <c r="I5">
-        <v>0.2570649733392047</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="J5">
-        <v>0.2570649733392047</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.0105607061342</v>
+        <v>0.116695</v>
       </c>
       <c r="N5">
-        <v>3.0105607061342</v>
+        <v>0.350085</v>
       </c>
       <c r="O5">
-        <v>0.4211967213470636</v>
+        <v>0.01062719176248979</v>
       </c>
       <c r="P5">
-        <v>0.4211967213470636</v>
+        <v>0.01062719176248978</v>
       </c>
       <c r="Q5">
-        <v>173.5342541086273</v>
+        <v>1.299422552983333</v>
       </c>
       <c r="R5">
-        <v>173.5342541086273</v>
+        <v>11.69480297685</v>
       </c>
       <c r="S5">
-        <v>0.1082749239436434</v>
+        <v>0.0004606750872465927</v>
       </c>
       <c r="T5">
-        <v>0.1082749239436434</v>
+        <v>0.0004606750872465926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5508753737788</v>
+        <v>11.13520333333333</v>
       </c>
       <c r="H6">
-        <v>39.5508753737788</v>
+        <v>33.40561</v>
       </c>
       <c r="I6">
-        <v>0.176384809762092</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="J6">
-        <v>0.176384809762092</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.13707495566744</v>
+        <v>3.025778</v>
       </c>
       <c r="N6">
-        <v>4.13707495566744</v>
+        <v>9.077334</v>
       </c>
       <c r="O6">
-        <v>0.5788032786529365</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="P6">
-        <v>0.5788032786529365</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="Q6">
-        <v>163.6249359835844</v>
+        <v>33.69265327152667</v>
       </c>
       <c r="R6">
-        <v>163.6249359835844</v>
+        <v>303.23387944374</v>
       </c>
       <c r="S6">
-        <v>0.1020921061948733</v>
+        <v>0.01194481806537402</v>
       </c>
       <c r="T6">
-        <v>0.1020921061948733</v>
+        <v>0.01194481806537401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.5508753737788</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H7">
-        <v>39.5508753737788</v>
+        <v>173.869492</v>
       </c>
       <c r="I7">
-        <v>0.176384809762092</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="J7">
-        <v>0.176384809762092</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0105607061342</v>
+        <v>7.582021999999999</v>
       </c>
       <c r="N7">
-        <v>3.0105607061342</v>
+        <v>22.746066</v>
       </c>
       <c r="O7">
-        <v>0.4211967213470636</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="P7">
-        <v>0.4211967213470636</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="Q7">
-        <v>119.0703112935092</v>
+        <v>439.4274378242746</v>
       </c>
       <c r="R7">
-        <v>119.0703112935092</v>
+        <v>3954.846940418472</v>
       </c>
       <c r="S7">
-        <v>0.0742927035672187</v>
+        <v>0.1557871015809904</v>
       </c>
       <c r="T7">
-        <v>0.0742927035672187</v>
+        <v>0.1557871015809904</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>58.3553982908875</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H8">
-        <v>58.3553982908875</v>
+        <v>173.869492</v>
       </c>
       <c r="I8">
-        <v>0.2602472316694486</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="J8">
-        <v>0.2602472316694486</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.13707495566744</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N8">
-        <v>4.13707495566744</v>
+        <v>0.52837</v>
       </c>
       <c r="O8">
-        <v>0.5788032786529365</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="P8">
-        <v>0.5788032786529365</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="Q8">
-        <v>241.4206567972292</v>
+        <v>10.20749149867111</v>
       </c>
       <c r="R8">
-        <v>241.4206567972292</v>
+        <v>91.86742348804</v>
       </c>
       <c r="S8">
-        <v>0.1506319509506272</v>
+        <v>0.003618789766210468</v>
       </c>
       <c r="T8">
-        <v>0.1506319509506272</v>
+        <v>0.003618789766210468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.3553982908875</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H9">
-        <v>58.3553982908875</v>
+        <v>173.869492</v>
       </c>
       <c r="I9">
-        <v>0.2602472316694486</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="J9">
-        <v>0.2602472316694486</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.0105607061342</v>
+        <v>0.08017533333333333</v>
       </c>
       <c r="N9">
-        <v>3.0105607061342</v>
+        <v>0.240526</v>
       </c>
       <c r="O9">
-        <v>0.4211967213470636</v>
+        <v>0.007301415158788918</v>
       </c>
       <c r="P9">
-        <v>0.4211967213470636</v>
+        <v>0.007301415158788917</v>
       </c>
       <c r="Q9">
-        <v>175.6824690853568</v>
+        <v>4.646681492532445</v>
       </c>
       <c r="R9">
-        <v>175.6824690853568</v>
+        <v>41.820133432792</v>
       </c>
       <c r="S9">
-        <v>0.1096152807188215</v>
+        <v>0.001647355124832105</v>
       </c>
       <c r="T9">
-        <v>0.1096152807188215</v>
+        <v>0.001647355124832105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.961726935259</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H10">
-        <v>29.961726935259</v>
+        <v>173.869492</v>
       </c>
       <c r="I10">
-        <v>0.1336201400266121</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="J10">
-        <v>0.1336201400266121</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.13707495566744</v>
+        <v>0.116695</v>
       </c>
       <c r="N10">
-        <v>4.13707495566744</v>
+        <v>0.350085</v>
       </c>
       <c r="O10">
-        <v>0.5788032786529365</v>
+        <v>0.01062719176248979</v>
       </c>
       <c r="P10">
-        <v>0.5788032786529365</v>
+        <v>0.01062719176248978</v>
       </c>
       <c r="Q10">
-        <v>123.9539101324066</v>
+        <v>6.763233456313333</v>
       </c>
       <c r="R10">
-        <v>123.9539101324066</v>
+        <v>60.86910110682</v>
       </c>
       <c r="S10">
-        <v>0.07733977514146755</v>
+        <v>0.002397721322754494</v>
       </c>
       <c r="T10">
-        <v>0.07733977514146755</v>
+        <v>0.002397721322754493</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.961726935259</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H11">
-        <v>29.961726935259</v>
+        <v>173.869492</v>
       </c>
       <c r="I11">
-        <v>0.1336201400266121</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="J11">
-        <v>0.1336201400266121</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.0105607061342</v>
+        <v>3.025778</v>
       </c>
       <c r="N11">
-        <v>3.0105607061342</v>
+        <v>9.077334</v>
       </c>
       <c r="O11">
-        <v>0.4211967213470636</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="P11">
-        <v>0.4211967213470636</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="Q11">
-        <v>90.20159779921342</v>
+        <v>175.3634945882587</v>
       </c>
       <c r="R11">
-        <v>90.20159779921342</v>
+        <v>1578.271451294328</v>
       </c>
       <c r="S11">
-        <v>0.05628036488514455</v>
+        <v>0.06217037943803461</v>
       </c>
       <c r="T11">
-        <v>0.05628036488514455</v>
+        <v>0.06217037943803459</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.4244955522175</v>
+        <v>55.64567566666667</v>
       </c>
       <c r="H12">
-        <v>34.4244955522175</v>
+        <v>166.937027</v>
       </c>
       <c r="I12">
-        <v>0.1535227233721208</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="J12">
-        <v>0.1535227233721208</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.13707495566744</v>
+        <v>7.582021999999999</v>
       </c>
       <c r="N12">
-        <v>4.13707495566744</v>
+        <v>22.746066</v>
       </c>
       <c r="O12">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="P12">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="Q12">
-        <v>142.4167184105642</v>
+        <v>421.9067371095313</v>
       </c>
       <c r="R12">
-        <v>142.4167184105642</v>
+        <v>3797.160633985782</v>
       </c>
       <c r="S12">
-        <v>0.0888594556355113</v>
+        <v>0.1495756114757472</v>
       </c>
       <c r="T12">
-        <v>0.0888594556355113</v>
+        <v>0.1495756114757472</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>55.64567566666667</v>
+      </c>
+      <c r="H13">
+        <v>166.937027</v>
+      </c>
+      <c r="I13">
+        <v>0.216625449936795</v>
+      </c>
+      <c r="J13">
+        <v>0.216625449936795</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.52837</v>
+      </c>
+      <c r="O13">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P13">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q13">
+        <v>9.800501883998889</v>
+      </c>
+      <c r="R13">
+        <v>88.20451695599</v>
+      </c>
+      <c r="S13">
+        <v>0.003474502616647667</v>
+      </c>
+      <c r="T13">
+        <v>0.003474502616647667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>55.64567566666667</v>
+      </c>
+      <c r="H14">
+        <v>166.937027</v>
+      </c>
+      <c r="I14">
+        <v>0.216625449936795</v>
+      </c>
+      <c r="J14">
+        <v>0.216625449936795</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.240526</v>
+      </c>
+      <c r="O14">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P14">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q14">
+        <v>4.461410595133556</v>
+      </c>
+      <c r="R14">
+        <v>40.152695356202</v>
+      </c>
+      <c r="S14">
+        <v>0.001581672343947985</v>
+      </c>
+      <c r="T14">
+        <v>0.001581672343947985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>55.64567566666667</v>
+      </c>
+      <c r="H15">
+        <v>166.937027</v>
+      </c>
+      <c r="I15">
+        <v>0.216625449936795</v>
+      </c>
+      <c r="J15">
+        <v>0.216625449936795</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.116695</v>
+      </c>
+      <c r="N15">
+        <v>0.350085</v>
+      </c>
+      <c r="O15">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P15">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q15">
+        <v>6.493572121921667</v>
+      </c>
+      <c r="R15">
+        <v>58.44214909729499</v>
+      </c>
+      <c r="S15">
+        <v>0.002302120197113952</v>
+      </c>
+      <c r="T15">
+        <v>0.002302120197113951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>55.64567566666667</v>
+      </c>
+      <c r="H16">
+        <v>166.937027</v>
+      </c>
+      <c r="I16">
+        <v>0.216625449936795</v>
+      </c>
+      <c r="J16">
+        <v>0.216625449936795</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.025778</v>
+      </c>
+      <c r="N16">
+        <v>9.077334</v>
+      </c>
+      <c r="O16">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P16">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q16">
+        <v>168.3714612273353</v>
+      </c>
+      <c r="R16">
+        <v>1515.343151046018</v>
+      </c>
+      <c r="S16">
+        <v>0.05969154330333827</v>
+      </c>
+      <c r="T16">
+        <v>0.05969154330333826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>60.68199533333333</v>
+      </c>
+      <c r="H17">
+        <v>182.045986</v>
+      </c>
+      <c r="I17">
+        <v>0.2362315559054342</v>
+      </c>
+      <c r="J17">
+        <v>0.2362315559054343</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N17">
+        <v>22.746066</v>
+      </c>
+      <c r="O17">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P17">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q17">
+        <v>460.0922236212306</v>
+      </c>
+      <c r="R17">
+        <v>4140.830012591076</v>
+      </c>
+      <c r="S17">
+        <v>0.1631132419331711</v>
+      </c>
+      <c r="T17">
+        <v>0.1631132419331711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>60.68199533333333</v>
+      </c>
+      <c r="H18">
+        <v>182.045986</v>
+      </c>
+      <c r="I18">
+        <v>0.2362315559054342</v>
+      </c>
+      <c r="J18">
+        <v>0.2362315559054343</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.52837</v>
+      </c>
+      <c r="O18">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P18">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q18">
+        <v>10.68751529142444</v>
+      </c>
+      <c r="R18">
+        <v>96.18763762282001</v>
+      </c>
+      <c r="S18">
+        <v>0.003788969206377471</v>
+      </c>
+      <c r="T18">
+        <v>0.003788969206377472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>60.68199533333333</v>
+      </c>
+      <c r="H19">
+        <v>182.045986</v>
+      </c>
+      <c r="I19">
+        <v>0.2362315559054342</v>
+      </c>
+      <c r="J19">
+        <v>0.2362315559054343</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.240526</v>
+      </c>
+      <c r="O19">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P19">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q19">
+        <v>4.865199203181778</v>
+      </c>
+      <c r="R19">
+        <v>43.786792828636</v>
+      </c>
+      <c r="S19">
+        <v>0.001724824663272229</v>
+      </c>
+      <c r="T19">
+        <v>0.001724824663272229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>60.68199533333333</v>
+      </c>
+      <c r="H20">
+        <v>182.045986</v>
+      </c>
+      <c r="I20">
+        <v>0.2362315559054342</v>
+      </c>
+      <c r="J20">
+        <v>0.2362315559054343</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.116695</v>
+      </c>
+      <c r="N20">
+        <v>0.350085</v>
+      </c>
+      <c r="O20">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P20">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q20">
+        <v>7.081285445423333</v>
+      </c>
+      <c r="R20">
+        <v>63.73156900881</v>
+      </c>
+      <c r="S20">
+        <v>0.002510478044958376</v>
+      </c>
+      <c r="T20">
+        <v>0.002510478044958376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>34.4244955522175</v>
-      </c>
-      <c r="H13">
-        <v>34.4244955522175</v>
-      </c>
-      <c r="I13">
-        <v>0.1535227233721208</v>
-      </c>
-      <c r="J13">
-        <v>0.1535227233721208</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.0105607061342</v>
-      </c>
-      <c r="N13">
-        <v>3.0105607061342</v>
-      </c>
-      <c r="O13">
-        <v>0.4211967213470636</v>
-      </c>
-      <c r="P13">
-        <v>0.4211967213470636</v>
-      </c>
-      <c r="Q13">
-        <v>103.6370336379975</v>
-      </c>
-      <c r="R13">
-        <v>103.6370336379975</v>
-      </c>
-      <c r="S13">
-        <v>0.06466326773660948</v>
-      </c>
-      <c r="T13">
-        <v>0.06466326773660948</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>60.68199533333333</v>
+      </c>
+      <c r="H21">
+        <v>182.045986</v>
+      </c>
+      <c r="I21">
+        <v>0.2362315559054342</v>
+      </c>
+      <c r="J21">
+        <v>0.2362315559054343</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.025778</v>
+      </c>
+      <c r="N21">
+        <v>9.077334</v>
+      </c>
+      <c r="O21">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P21">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q21">
+        <v>183.6102464757027</v>
+      </c>
+      <c r="R21">
+        <v>1652.492218281324</v>
+      </c>
+      <c r="S21">
+        <v>0.06509404205765514</v>
+      </c>
+      <c r="T21">
+        <v>0.06509404205765514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>30.42032266666667</v>
+      </c>
+      <c r="H22">
+        <v>91.26096800000001</v>
+      </c>
+      <c r="I22">
+        <v>0.1184245856652728</v>
+      </c>
+      <c r="J22">
+        <v>0.1184245856652728</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N22">
+        <v>22.746066</v>
+      </c>
+      <c r="O22">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P22">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q22">
+        <v>230.6475557057653</v>
+      </c>
+      <c r="R22">
+        <v>2075.828001351888</v>
+      </c>
+      <c r="S22">
+        <v>0.08176984661688383</v>
+      </c>
+      <c r="T22">
+        <v>0.08176984661688384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>30.42032266666667</v>
+      </c>
+      <c r="H23">
+        <v>91.26096800000001</v>
+      </c>
+      <c r="I23">
+        <v>0.1184245856652728</v>
+      </c>
+      <c r="J23">
+        <v>0.1184245856652728</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.52837</v>
+      </c>
+      <c r="O23">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P23">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q23">
+        <v>5.357728629128888</v>
+      </c>
+      <c r="R23">
+        <v>48.21955766216001</v>
+      </c>
+      <c r="S23">
+        <v>0.001899437637126477</v>
+      </c>
+      <c r="T23">
+        <v>0.001899437637126478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>30.42032266666667</v>
+      </c>
+      <c r="H24">
+        <v>91.26096800000001</v>
+      </c>
+      <c r="I24">
+        <v>0.1184245856652728</v>
+      </c>
+      <c r="J24">
+        <v>0.1184245856652728</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.240526</v>
+      </c>
+      <c r="O24">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P24">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q24">
+        <v>2.438959509907556</v>
+      </c>
+      <c r="R24">
+        <v>21.950635589168</v>
+      </c>
+      <c r="S24">
+        <v>0.0008646670649497193</v>
+      </c>
+      <c r="T24">
+        <v>0.0008646670649497193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>30.42032266666667</v>
+      </c>
+      <c r="H25">
+        <v>91.26096800000001</v>
+      </c>
+      <c r="I25">
+        <v>0.1184245856652728</v>
+      </c>
+      <c r="J25">
+        <v>0.1184245856652728</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.116695</v>
+      </c>
+      <c r="N25">
+        <v>0.350085</v>
+      </c>
+      <c r="O25">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P25">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q25">
+        <v>3.549899553586667</v>
+      </c>
+      <c r="R25">
+        <v>31.94909598228</v>
+      </c>
+      <c r="S25">
+        <v>0.001258520781258252</v>
+      </c>
+      <c r="T25">
+        <v>0.001258520781258252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>30.42032266666667</v>
+      </c>
+      <c r="H26">
+        <v>91.26096800000001</v>
+      </c>
+      <c r="I26">
+        <v>0.1184245856652728</v>
+      </c>
+      <c r="J26">
+        <v>0.1184245856652728</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.025778</v>
+      </c>
+      <c r="N26">
+        <v>9.077334</v>
+      </c>
+      <c r="O26">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P26">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q26">
+        <v>92.04514307770134</v>
+      </c>
+      <c r="R26">
+        <v>828.4062876993121</v>
+      </c>
+      <c r="S26">
+        <v>0.03263211356505449</v>
+      </c>
+      <c r="T26">
+        <v>0.03263211356505449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>41.03536666666667</v>
+      </c>
+      <c r="H27">
+        <v>123.1061</v>
+      </c>
+      <c r="I27">
+        <v>0.1597483481149097</v>
+      </c>
+      <c r="J27">
+        <v>0.1597483481149097</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N27">
+        <v>22.746066</v>
+      </c>
+      <c r="O27">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P27">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q27">
+        <v>311.1310528447333</v>
+      </c>
+      <c r="R27">
+        <v>2800.1794756026</v>
+      </c>
+      <c r="S27">
+        <v>0.1103030916196589</v>
+      </c>
+      <c r="T27">
+        <v>0.1103030916196589</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>41.03536666666667</v>
+      </c>
+      <c r="H28">
+        <v>123.1061</v>
+      </c>
+      <c r="I28">
+        <v>0.1597483481149097</v>
+      </c>
+      <c r="J28">
+        <v>0.1597483481149097</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.52837</v>
+      </c>
+      <c r="O28">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P28">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q28">
+        <v>7.227285561888888</v>
+      </c>
+      <c r="R28">
+        <v>65.04557005700001</v>
+      </c>
+      <c r="S28">
+        <v>0.002562238433629762</v>
+      </c>
+      <c r="T28">
+        <v>0.002562238433629762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>41.03536666666667</v>
+      </c>
+      <c r="H29">
+        <v>123.1061</v>
+      </c>
+      <c r="I29">
+        <v>0.1597483481149097</v>
+      </c>
+      <c r="J29">
+        <v>0.1597483481149097</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.240526</v>
+      </c>
+      <c r="O29">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P29">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q29">
+        <v>3.290024200955556</v>
+      </c>
+      <c r="R29">
+        <v>29.6102178086</v>
+      </c>
+      <c r="S29">
+        <v>0.001166389010517691</v>
+      </c>
+      <c r="T29">
+        <v>0.001166389010517691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>41.03536666666667</v>
+      </c>
+      <c r="H30">
+        <v>123.1061</v>
+      </c>
+      <c r="I30">
+        <v>0.1597483481149097</v>
+      </c>
+      <c r="J30">
+        <v>0.1597483481149097</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.116695</v>
+      </c>
+      <c r="N30">
+        <v>0.350085</v>
+      </c>
+      <c r="O30">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P30">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q30">
+        <v>4.788622113166666</v>
+      </c>
+      <c r="R30">
+        <v>43.0975990185</v>
+      </c>
+      <c r="S30">
+        <v>0.001697676329158119</v>
+      </c>
+      <c r="T30">
+        <v>0.001697676329158119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>41.03536666666667</v>
+      </c>
+      <c r="H31">
+        <v>123.1061</v>
+      </c>
+      <c r="I31">
+        <v>0.1597483481149097</v>
+      </c>
+      <c r="J31">
+        <v>0.1597483481149097</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.025778</v>
+      </c>
+      <c r="N31">
+        <v>9.077334</v>
+      </c>
+      <c r="O31">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P31">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q31">
+        <v>124.1639096819333</v>
+      </c>
+      <c r="R31">
+        <v>1117.4751871374</v>
+      </c>
+      <c r="S31">
+        <v>0.04401895272194521</v>
+      </c>
+      <c r="T31">
+        <v>0.04401895272194521</v>
       </c>
     </row>
   </sheetData>
